--- a/resources/experiment 1/metrics/MAPE/upto time/Macroalbuminuria (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Macroalbuminuria (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5489827817512977</v>
+        <v>5489827817512978</v>
       </c>
       <c r="C2" t="n">
-        <v>5489827817512977</v>
+        <v>5489827817512978</v>
       </c>
       <c r="D2" t="n">
-        <v>5489827817512977</v>
+        <v>5489827817512978</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7860529807309.277</v>
+        <v>9942265647837.883</v>
       </c>
       <c r="C3" t="n">
-        <v>7927408461639.171</v>
+        <v>7944078720463.133</v>
       </c>
       <c r="D3" t="n">
-        <v>7927408461639.171</v>
+        <v>7016406959225.904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32318290796289.23</v>
+        <v>4958455199013.18</v>
       </c>
       <c r="C4" t="n">
-        <v>32355108319314.8</v>
+        <v>4958455199013.18</v>
       </c>
       <c r="D4" t="n">
-        <v>32355108319314.8</v>
+        <v>4957675996498.995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343887617297005.5</v>
+        <v>151260026024762.9</v>
       </c>
       <c r="C5" t="n">
-        <v>344371634695824.1</v>
+        <v>199577340389577.3</v>
       </c>
       <c r="D5" t="n">
-        <v>344371634695824.1</v>
+        <v>253407287789214.3</v>
       </c>
     </row>
   </sheetData>
